--- a/Djangoリベンジ.xlsx
+++ b/Djangoリベンジ.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\env1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4819D05-C702-44AF-B2EA-C02D23F8274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B84B8-F8A3-4423-8898-44E58DCD6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12660" windowWidth="14400" windowHeight="7365" activeTab="2" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
+    <workbookView xWindow="-6960" yWindow="-6255" windowWidth="14400" windowHeight="7365" firstSheet="1" activeTab="2" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="読書録リベンジ①" sheetId="2" r:id="rId2"/>
     <sheet name="読書録リベンジ②" sheetId="3" r:id="rId3"/>
+    <sheet name="読書録リベンジ③" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
@@ -1078,16 +1079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■画面の実装</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Templateをつくる</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,6 +1245,178 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django 初心者が簡単なアプリをつくる3 - Qiita</t>
+  </si>
+  <si>
+    <t>■参照画面の実装</t>
+    <rPh sb="1" eb="3">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■登録画面の実装</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forms.pyをつくる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥RecordReadingの直下にform.pyを作成する</t>
+    <rPh sb="17" eb="19">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form.pyの中身を記述する</t>
+    <rPh sb="8" eb="10">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※HTMLで入力したモノを、Modelに入れるための処理、というような位置づけ</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form用のURLを　パス¥RedordReading¥urls.pyで設定する</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form用の処理をviews.pyに記述する</t>
+  </si>
+  <si>
+    <t>1-5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥templates¥recordreading直下にregister.htmlを作成し、各種登録画面のテンプレートとなるHTMLを記述する</t>
+    <rPh sb="26" eb="28">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作者登録画面</t>
+  </si>
+  <si>
+    <t>■各種URL</t>
+    <rPh sb="1" eb="3">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面：http://127.0.0.1:8000/recordreading/</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作者登録画面：http://127.0.0.1:8000/recordreading/register/author/</t>
+    <rPh sb="0" eb="6">
+      <t>サクシャトウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル追加画面：http://127.0.0.1:8000/recordreading/register/book/</t>
+    <rPh sb="4" eb="8">
+      <t>ツイカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル追加画面</t>
+    <rPh sb="4" eb="8">
+      <t>ツイカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細追加画面</t>
+    <rPh sb="0" eb="6">
+      <t>ショウサイツイカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細追加画面：http://127.0.0.1:8000/recordreading/writing/memory/</t>
+    <rPh sb="0" eb="6">
+      <t>ショウサイツイカガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1262,7 +1425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1483,15 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1458,12 +1630,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,9 +1693,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1533,8 +1705,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2617,6 +2802,363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1502</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD8C51F-C7DC-F5EA-5321-8294F27449BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="1143000"/>
+          <a:ext cx="1973177" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2671</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C029867-5C67-99B4-1303-BBCB24BF75C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="6429375"/>
+          <a:ext cx="3288796" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>45774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B730FD54-70D8-A080-080A-107A7B36B524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="8858251"/>
+          <a:ext cx="3305175" cy="899848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>87894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE57866-445C-02E4-B84C-EE113686C882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="10001252"/>
+          <a:ext cx="5276849" cy="2802517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>86208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EFF0A3-470E-1EF9-7621-646F5A50E159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="13144500"/>
+          <a:ext cx="3286125" cy="2229333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>141682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0EBCBF-0DFA-EEFC-BB42-5AE136BDEB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="16516351"/>
+          <a:ext cx="3952875" cy="2141931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14562</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2A8B09-EA7E-7084-D3E5-490B4734F55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="18945225"/>
+          <a:ext cx="3957912" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14562</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714ADDCF-1727-7A0B-EFDA-35E3CAD53212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="21374100"/>
+          <a:ext cx="3957912" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2951,7 +3493,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2985,7 +3527,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3035,7 +3577,7 @@
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3383,10 +3925,10 @@
         <v>35</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="18"/>
+      <c r="I118" s="22"/>
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3397,10 +3939,10 @@
         <v>35</v>
       </c>
       <c r="G119" s="12"/>
-      <c r="H119" s="18" t="s">
+      <c r="H119" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I119" s="18"/>
+      <c r="I119" s="22"/>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3414,10 +3956,10 @@
         <v>61</v>
       </c>
       <c r="G120" s="12"/>
-      <c r="H120" s="18" t="s">
+      <c r="H120" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I120" s="18"/>
+      <c r="I120" s="22"/>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3428,8 +3970,8 @@
         <v>36</v>
       </c>
       <c r="G121" s="12"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3440,8 +3982,8 @@
         <v>37</v>
       </c>
       <c r="G122" s="12"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3452,8 +3994,8 @@
         <v>38</v>
       </c>
       <c r="G123" s="12"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3481,44 +4023,44 @@
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G128" s="12"/>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="18"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G129" s="12"/>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I129" s="18"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G130" s="12"/>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I130" s="18"/>
+      <c r="I130" s="22"/>
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G131" s="12"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G132" s="12"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G133" s="12"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -3540,46 +4082,46 @@
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G138" s="12"/>
-      <c r="H138" s="18" t="s">
+      <c r="H138" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I138" s="18"/>
+      <c r="I138" s="22"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G139" s="12"/>
-      <c r="H139" s="18" t="s">
+      <c r="H139" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I139" s="18"/>
+      <c r="I139" s="22"/>
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G140" s="12"/>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I140" s="18"/>
+      <c r="I140" s="22"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G141" s="12"/>
-      <c r="H141" s="18" t="s">
+      <c r="H141" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I141" s="18"/>
+      <c r="I141" s="22"/>
       <c r="J141" s="16"/>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G142" s="12"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G143" s="12"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -3712,7 +4254,7 @@
         <v>106</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -3750,7 +4292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0E1CA-256C-4C00-AB7B-ADF8822DE757}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3764,7 +4306,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3793,7 +4335,7 @@
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3887,17 +4429,17 @@
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3905,7 +4447,7 @@
         <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -3913,7 +4455,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -3921,56 +4463,56 @@
         <v>82</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C158" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3978,4 +4520,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1243D-6151-48CD-9E1C-BA086C4D7727}">
+  <dimension ref="A1:J149"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C149" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Djangoリベンジ.xlsx
+++ b/Djangoリベンジ.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\env1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B84B8-F8A3-4423-8898-44E58DCD6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9BE5D-0B49-4EB0-B454-E2B018AB5772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-6255" windowWidth="14400" windowHeight="7365" firstSheet="1" activeTab="2" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
+    <workbookView xWindow="-8280" yWindow="-14415" windowWidth="14400" windowHeight="7365" firstSheet="2" activeTab="4" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="読書録リベンジ①" sheetId="2" r:id="rId2"/>
     <sheet name="読書録リベンジ②" sheetId="3" r:id="rId3"/>
     <sheet name="読書録リベンジ③" sheetId="4" r:id="rId4"/>
+    <sheet name="読書録リベンジ④" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="183">
   <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
@@ -1119,13 +1120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◆補足</t>
-    <rPh sb="1" eb="3">
-      <t>ホソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1249,9 +1243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Django 初心者が簡単なアプリをつくる3 - Qiita</t>
-  </si>
-  <si>
     <t>■参照画面の実装</t>
     <rPh sb="1" eb="3">
       <t>サンショウ</t>
@@ -1418,6 +1409,186 @@
     <rPh sb="0" eb="6">
       <t>ショウサイツイカガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django 初心者が簡単なアプリをつくる3 - Qiita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Update機能の実装</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urls.pyの追記</t>
+    <rPh sb="8" eb="10">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥RedordReading¥urls.py　にUpdateページのURLを設定する</t>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥RedordReading¥views.py　にUpdate処理を記載する</t>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Django 初心者が簡単なアプリをつくる5 - Qiita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Delete機能の実装</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥RedordReading¥urls.py　に感想とタイトルのDeleteページのURLを設定する</t>
+    <rPh sb="26" eb="28">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥RedordReading¥views.py　にDelete処理を記載する</t>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■画面部分の実装</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlの追記</t>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥templates¥recordingreadingの直下にdelete.htmlを作成する</t>
+    <rPh sb="30" eb="32">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥templates¥recordingreading¥delete.htmlに削除確認画面の記載をする</t>
+    <rPh sb="42" eb="44">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス¥templates¥recordingreading¥detail.htmlに編集ボタンと削除ボタンの記載をする</t>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ここでVSCodeのDjango用拡張機能をインストールしたため、表示される文字色に差異がある</t>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>カクチョウキノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>モジショク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆動確・修正</t>
+    <rPh sb="1" eb="3">
+      <t>ドウカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\python\env1\mysite</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1425,7 +1596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1663,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF8095"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1638,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1705,9 +1882,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1715,6 +1889,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3034,8 +3214,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>141682</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3077,7 +3257,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14562</xdr:colOff>
+      <xdr:colOff>8212</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3121,7 +3301,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14562</xdr:colOff>
+      <xdr:colOff>8212</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3148,6 +3328,319 @@
         <a:xfrm>
           <a:off x="1666875" y="21374100"/>
           <a:ext cx="3957912" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAFA232-10FC-7F54-9753-D9528B172043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="1714500"/>
+          <a:ext cx="5257799" cy="1428195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C717A8-0BF9-A330-B274-6B3593481185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="3429001"/>
+          <a:ext cx="5257800" cy="980463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE9F61E-CE35-2815-B042-D7372E85538D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="4857751"/>
+          <a:ext cx="5257799" cy="1570079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9AF971-C28F-970B-789C-93147121732B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="6715125"/>
+          <a:ext cx="5267324" cy="1491370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11581</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2B6F5-5E13-A2A5-F33E-CD3B3FB5C2C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="8715375"/>
+          <a:ext cx="1980081" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312CB2B6-A733-D8DC-7B5F-E369F3AA0E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="11572875"/>
+          <a:ext cx="5257800" cy="2584239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>10090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7627ABDC-FFB1-11BD-DFF3-B7AE0887E55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="14573251"/>
+          <a:ext cx="5267324" cy="2153214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3506,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFDA9FD-24B0-41B1-8005-BF592F3831A7}">
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
@@ -3925,10 +4418,10 @@
         <v>35</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="22"/>
+      <c r="I118" s="25"/>
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3939,10 +4432,10 @@
         <v>35</v>
       </c>
       <c r="G119" s="12"/>
-      <c r="H119" s="22" t="s">
+      <c r="H119" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I119" s="22"/>
+      <c r="I119" s="25"/>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3956,10 +4449,10 @@
         <v>61</v>
       </c>
       <c r="G120" s="12"/>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I120" s="22"/>
+      <c r="I120" s="25"/>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3970,8 +4463,8 @@
         <v>36</v>
       </c>
       <c r="G121" s="12"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3982,8 +4475,8 @@
         <v>37</v>
       </c>
       <c r="G122" s="12"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -3994,8 +4487,8 @@
         <v>38</v>
       </c>
       <c r="G123" s="12"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4023,44 +4516,44 @@
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G128" s="12"/>
-      <c r="H128" s="22" t="s">
+      <c r="H128" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="22"/>
+      <c r="I128" s="25"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G129" s="12"/>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I129" s="22"/>
+      <c r="I129" s="25"/>
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G130" s="12"/>
-      <c r="H130" s="22" t="s">
+      <c r="H130" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I130" s="22"/>
+      <c r="I130" s="25"/>
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G131" s="12"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G132" s="12"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G133" s="12"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -4082,46 +4575,46 @@
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G138" s="12"/>
-      <c r="H138" s="22" t="s">
+      <c r="H138" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I138" s="22"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G139" s="12"/>
-      <c r="H139" s="22" t="s">
+      <c r="H139" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I139" s="22"/>
+      <c r="I139" s="25"/>
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G140" s="12"/>
-      <c r="H140" s="22" t="s">
+      <c r="H140" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I140" s="22"/>
+      <c r="I140" s="25"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G141" s="12"/>
-      <c r="H141" s="22" t="s">
+      <c r="H141" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I141" s="22"/>
+      <c r="I141" s="25"/>
       <c r="J141" s="16"/>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G142" s="12"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G143" s="12"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -4254,7 +4747,7 @@
         <v>106</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -4292,7 +4785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0E1CA-256C-4C00-AB7B-ADF8822DE757}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4433,7 +4928,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
@@ -4468,51 +4963,51 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D150" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4526,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1243D-6151-48CD-9E1C-BA086C4D7727}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
@@ -4543,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4561,7 +5056,7 @@
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
@@ -4578,39 +5073,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="23" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="23" t="s">
-        <v>163</v>
+      <c r="B9" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4618,7 +5113,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -4626,12 +5121,12 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -4639,7 +5134,7 @@
         <v>17</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
@@ -4647,26 +5142,26 @@
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4674,23 +5169,23 @@
         <v>99</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C132" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4699,4 +5194,322 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D86298-0296-4D09-AF44-3CD49E01FED4}">
+  <dimension ref="A1:D119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="2"/>
+      <c r="C47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="26"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Djangoリベンジ.xlsx
+++ b/Djangoリベンジ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\env1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9BE5D-0B49-4EB0-B454-E2B018AB5772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623CA504-5EA5-4ADD-943F-98C3B5E35C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8280" yWindow="-14415" windowWidth="14400" windowHeight="7365" firstSheet="2" activeTab="4" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{B2793907-AC3A-49B3-9A7A-340C98BEEED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
   <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
@@ -1589,6 +1589,482 @@
   </si>
   <si>
     <t>C:\python\env1\mysite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面からの遷移でエラーが発生</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.htmlにて、「RecordReading」を「recordreading」と記載していたことが原因であったため、</t>
+    <rPh sb="46" eb="48">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.htmlを下記のように修正</t>
+    <rPh sb="12" eb="14">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移ができ、編集・削除ボタンが表示されることを確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B-1. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集・削除ボタンの位置が想定外の場所にある事象、同じデータが2度表示される事象が発生</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.htmlにて、「ｍemory」件数に応じたFor文処理を重複して記載していたことが原因であったため、</t>
+    <rPh sb="22" eb="24">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感想の件数、ボタンの位置がともに想定通り表示されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウテイドオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面で編集ボタン押下後、感想の編集をして登録ボタン押下で、詳細画面に戻らない事象が発生</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>views.pyにて、戻り先の指定を間違っていたことが原因であったため、</t>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>views.pyを下記のように修正</t>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※詳細更新部分以外にみ誤りを見つけたので、ここで一緒に修正</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定通り遷移し、編集内容が反映されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヘンシュウナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン押下でエラーが発生</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回作成しているviews.pyの作りだと、deleteの際に読み込むtemplatesは「〇〇_confirm_delete.html」になるが、</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「delete.html」を作成していなかったため、「delete.html」を「memory_confirm_delete.html」に修正</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定通り遷移することを確認</t>
+    <rPh sb="0" eb="3">
+      <t>ソウテイドオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン押下時の確認画面で、削除対象の情報が正しく表示されない事象が発生</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memory_confirm_delete.html内で、Model名を指定していなかったことが原因であったため、</t>
+    <rPh sb="26" eb="27">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memory_confirm_delete.htmlを下記のように修正</t>
+    <rPh sb="27" eb="29">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定通り確認画面が表示され、OKボタン押下で詳細画面へ遷移することを確認</t>
+    <rPh sb="0" eb="3">
+      <t>ソウテイドオ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1815,7 +2291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1891,11 +2367,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3649,6 +4128,930 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>103211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DE3A4F-4E3C-46D1-A938-CE27BF2C3744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="17002126"/>
+          <a:ext cx="3962400" cy="2103460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>105963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F36EAC-2D75-450C-80D2-B49DC6ED45FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="19288125"/>
+          <a:ext cx="3971925" cy="2106213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>1901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62CC235-0066-D6EB-47F6-37B5C91C978E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="21859875"/>
+          <a:ext cx="5286375" cy="855976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73583</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20756F6-66FD-9B51-A14B-08B47A2004A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="22860001"/>
+          <a:ext cx="4016933" cy="2133599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>73583</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFFACA7-6E45-413F-B434-7512F903F2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="25431750"/>
+          <a:ext cx="4016933" cy="2133599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>65460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC25AF8C-4FCE-F6EA-A196-CA292B1AC0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="28003500"/>
+          <a:ext cx="3952875" cy="919535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>95399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB7E258-C63C-8421-0F0F-9038D66F0DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666877" y="29146501"/>
+          <a:ext cx="3952873" cy="2095648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12698</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>95398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCCEA7B-9EDC-4011-B985-24D29887B5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="31575375"/>
+          <a:ext cx="3952873" cy="2095648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26592</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA05959A-9172-4BEC-A9F7-BA3829A5BDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="33861376"/>
+          <a:ext cx="3966767" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>94549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DC28FA-82CA-E28C-174E-BD005C581D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="36147378"/>
+          <a:ext cx="3952875" cy="2094796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>641104</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E361C3FC-6689-8984-597A-E767F6BDBB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="38433377"/>
+          <a:ext cx="3930403" cy="2085973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>126580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A48641E-3EBE-ABFB-BEF8-3C63B9D79F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="41148002"/>
+          <a:ext cx="5248274" cy="2552278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>104957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BFF697-BF51-45CD-924A-7167885FE473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="44005500"/>
+          <a:ext cx="3952875" cy="2102032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>88857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2688FE93-9F85-3104-89F9-75113D5DE83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="46434375"/>
+          <a:ext cx="3943349" cy="2092282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2475</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4528FBEA-4898-B894-FC09-B7E038E4F7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666877" y="48720376"/>
+          <a:ext cx="3942648" cy="2095499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647709</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A79145A-70CC-D930-CF12-010AFF71ADFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="51292126"/>
+          <a:ext cx="1962159" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>104677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4DFE1A-1453-9E88-EE9E-5BBDFAC8F8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="55721250"/>
+          <a:ext cx="3952875" cy="2101752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>104677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B9DC8F-CD6D-4E24-B9AA-29D428FB98BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="58435875"/>
+          <a:ext cx="3949700" cy="2104927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>93831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2646C48-BC33-711A-7635-C39FF6C6B183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="61007625"/>
+          <a:ext cx="3933825" cy="1665456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>98772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE679D0-A6EB-2484-A16C-D2ADB812A534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666877" y="63007875"/>
+          <a:ext cx="3952873" cy="2099022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>98578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264FD90E-CE6A-B48E-0365-4E0BC9FBBAB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666877" y="65293875"/>
+          <a:ext cx="3952873" cy="2098828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3999,7 +5402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFDA9FD-24B0-41B1-8005-BF592F3831A7}">
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
@@ -4418,10 +5821,10 @@
         <v>35</v>
       </c>
       <c r="G118" s="12"/>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="25"/>
+      <c r="I118" s="27"/>
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4432,10 +5835,10 @@
         <v>35</v>
       </c>
       <c r="G119" s="12"/>
-      <c r="H119" s="25" t="s">
+      <c r="H119" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I119" s="25"/>
+      <c r="I119" s="27"/>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4449,10 +5852,10 @@
         <v>61</v>
       </c>
       <c r="G120" s="12"/>
-      <c r="H120" s="25" t="s">
+      <c r="H120" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I120" s="25"/>
+      <c r="I120" s="27"/>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4463,8 +5866,8 @@
         <v>36</v>
       </c>
       <c r="G121" s="12"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4475,8 +5878,8 @@
         <v>37</v>
       </c>
       <c r="G122" s="12"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4487,8 +5890,8 @@
         <v>38</v>
       </c>
       <c r="G123" s="12"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.55000000000000004">
@@ -4516,44 +5919,44 @@
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G128" s="12"/>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="25"/>
+      <c r="I128" s="27"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G129" s="12"/>
-      <c r="H129" s="25" t="s">
+      <c r="H129" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I129" s="25"/>
+      <c r="I129" s="27"/>
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G130" s="12"/>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I130" s="25"/>
+      <c r="I130" s="27"/>
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G131" s="12"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G132" s="12"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G133" s="12"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -4575,46 +5978,46 @@
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G138" s="12"/>
-      <c r="H138" s="25" t="s">
+      <c r="H138" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I138" s="25"/>
+      <c r="I138" s="27"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G139" s="12"/>
-      <c r="H139" s="25" t="s">
+      <c r="H139" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I139" s="25"/>
+      <c r="I139" s="27"/>
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G140" s="12"/>
-      <c r="H140" s="25" t="s">
+      <c r="H140" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I140" s="25"/>
+      <c r="I140" s="27"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G141" s="12"/>
-      <c r="H141" s="25" t="s">
+      <c r="H141" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I141" s="25"/>
+      <c r="I141" s="27"/>
       <c r="J141" s="16"/>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G142" s="12"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G143" s="12"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.55000000000000004">
@@ -4785,7 +6188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0E1CA-256C-4C00-AB7B-ADF8822DE757}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -5198,14 +6601,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D86298-0296-4D09-AF44-3CD49E01FED4}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -5214,7 +6617,7 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5230,12 +6633,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5282,7 +6685,6 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5290,71 +6692,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2"/>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
@@ -5368,7 +6712,6 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
@@ -5376,86 +6719,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="2"/>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
@@ -5469,7 +6739,6 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
         <v>174</v>
       </c>
@@ -5486,7 +6755,7 @@
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="26"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="1" t="s">
@@ -5501,11 +6770,161 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C152" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C161" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C195" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C204" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B221" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C286" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D287" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D288" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C308" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B325" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C358" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D359" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C392" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B409" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D410" s="20"/>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C426" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D427" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C441" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
